--- a/Pll/excel_list/test2.map.xlsx
+++ b/Pll/excel_list/test2.map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>random</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>2-hop-based</t>
+  </si>
+  <si>
+    <t>label-count-based</t>
   </si>
   <si>
     <t>indexing_time</t>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,7 +407,7 @@
     <col min="1" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,10 +423,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -440,10 +446,13 @@
       <c r="F2">
         <v>0.002</v>
       </c>
+      <c r="G2">
+        <v>0.002</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -460,25 +469,31 @@
       <c r="F3">
         <v>82.83329999999999</v>
       </c>
+      <c r="G3">
+        <v>82.83329999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.6091</v>
+        <v>0.6083</v>
       </c>
       <c r="D4">
-        <v>0.6083</v>
+        <v>0.5944</v>
       </c>
       <c r="E4">
-        <v>0.5512</v>
+        <v>0.5585</v>
       </c>
       <c r="F4">
-        <v>0.5502</v>
+        <v>0.5555</v>
+      </c>
+      <c r="G4">
+        <v>0.5785</v>
       </c>
     </row>
   </sheetData>
